--- a/MillenniumHistory/x64/EngineStaticReleaseWindows/Resource/AncientBooks/Calendar.xlsx
+++ b/MillenniumHistory/x64/EngineStaticReleaseWindows/Resource/AncientBooks/Calendar.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
   <si>
     <t>@default</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Character</t>
   </si>
   <si>
     <t>Year</t>
@@ -1373,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -1392,137 +1398,143 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
@@ -1530,10 +1542,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1541,10 +1553,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1">
         <v>-104</v>
@@ -1555,10 +1567,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1566,10 +1578,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1577,10 +1589,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1588,10 +1600,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1599,16 +1611,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>10020001</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1">
         <v>-104</v>
@@ -1625,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
         <v>10030001</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1">
         <v>85</v>
@@ -1648,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1">
         <v>10050001</v>
@@ -1671,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1">
         <v>800180004</v>
@@ -1685,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1">
         <v>800180005</v>
@@ -1699,13 +1711,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1">
         <v>800180006</v>
@@ -1725,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1">
         <v>274</v>
@@ -1736,7 +1748,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1">
         <v>277</v>
@@ -1747,7 +1759,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1">
         <v>352</v>
@@ -1758,7 +1770,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1">
         <v>10050001</v>
@@ -1778,7 +1790,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1">
         <v>412</v>
@@ -1801,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1">
         <v>10070006</v>
@@ -1815,10 +1827,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1">
         <v>10060001</v>
@@ -1838,7 +1850,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
         <v>10060001</v>
@@ -1858,7 +1870,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1">
         <v>10070001</v>
@@ -1872,7 +1884,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1">
         <v>10070001</v>
@@ -1886,7 +1898,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1">
         <v>10070001</v>
@@ -1906,7 +1918,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1">
         <v>10070001</v>
@@ -1926,7 +1938,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1">
         <v>10070004</v>
@@ -1940,7 +1952,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G30" s="1">
         <v>547</v>
@@ -1951,7 +1963,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G31" s="1">
         <v>550</v>
@@ -1968,13 +1980,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G32" s="1">
         <v>566</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I32" s="1">
         <v>566</v>
@@ -1988,7 +2000,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G33" s="1">
         <v>576</v>
@@ -1999,7 +2011,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1">
         <v>10070004</v>
@@ -2013,7 +2025,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1">
         <v>10070004</v>
@@ -2027,7 +2039,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1">
         <v>10070004</v>
@@ -2047,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1">
         <v>10070004</v>
@@ -2067,7 +2079,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1">
         <v>10070004</v>
@@ -2087,7 +2099,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1">
         <v>10070004</v>
@@ -2101,10 +2113,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G40" s="1">
         <v>619</v>
@@ -2121,10 +2133,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G41" s="1">
         <v>665</v>
@@ -2141,7 +2153,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G42" s="1">
         <v>698</v>
@@ -2152,7 +2164,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D43" s="1">
         <v>10080001</v>
@@ -2166,10 +2178,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1">
         <v>728</v>
@@ -2186,7 +2198,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D45" s="1">
         <v>10080004</v>
@@ -2206,7 +2218,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D46" s="1">
         <v>10080004</v>
@@ -2226,7 +2238,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1">
         <v>10090003</v>
@@ -2240,7 +2252,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1">
         <v>10080004</v>
@@ -2260,7 +2272,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D49" s="1">
         <v>10080004</v>
@@ -2280,7 +2292,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D50" s="1">
         <v>10080004</v>
@@ -2300,7 +2312,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D51" s="1">
         <v>10080004</v>
@@ -2320,7 +2332,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D52" s="1">
         <v>11020004</v>
@@ -2340,7 +2352,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D53" s="1">
         <v>11020004</v>
@@ -2360,7 +2372,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G54" s="1">
         <v>937</v>
@@ -2383,7 +2395,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G55" s="1">
         <v>940</v>
@@ -2400,7 +2412,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G56" s="1">
         <v>950</v>
@@ -2417,7 +2429,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G57" s="1">
         <v>952</v>
@@ -2428,10 +2440,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G58" s="1">
         <v>956</v>
@@ -2448,7 +2460,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1">
         <v>10100001</v>
@@ -2468,7 +2480,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D60" s="1">
         <v>10100001</v>
@@ -2488,7 +2500,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D61" s="1">
         <v>10110001</v>
@@ -2514,7 +2526,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G62" s="1">
         <v>995</v>
@@ -2525,7 +2537,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D63" s="1">
         <v>10100001</v>
@@ -2545,7 +2557,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G64" s="1">
         <v>1022</v>
@@ -2556,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D65" s="1">
         <v>10100001</v>
@@ -2582,7 +2594,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D66" s="1">
         <v>10100001</v>
@@ -2602,10 +2614,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G67" s="1">
         <v>1074</v>
@@ -2622,10 +2634,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G68" s="1">
         <v>1086</v>
@@ -2636,7 +2648,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D69" s="1">
         <v>10100001</v>
@@ -2656,10 +2668,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G70" s="1">
         <v>1103</v>
@@ -2676,7 +2688,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D71" s="1">
         <v>10100001</v>
@@ -2702,7 +2714,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G72" s="1">
         <v>1127</v>
@@ -2719,7 +2731,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D73" s="1">
         <v>10100001</v>
@@ -2739,7 +2751,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D74" s="1">
         <v>10100001</v>
@@ -2759,7 +2771,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D75" s="1">
         <v>10100001</v>
@@ -2779,7 +2791,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D76" s="1">
         <v>10120001</v>
@@ -2805,7 +2817,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D77" s="1">
         <v>10120001</v>
@@ -2819,7 +2831,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G78" s="1">
         <v>1187</v>
@@ -2830,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1">
         <v>10100001</v>
@@ -2850,7 +2862,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D80" s="1">
         <v>10100001</v>
@@ -2870,7 +2882,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D81" s="1">
         <v>10100001</v>
@@ -2890,7 +2902,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D82" s="1">
         <v>10130001</v>
@@ -2904,7 +2916,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G83" s="1">
         <v>1250</v>
@@ -2921,7 +2933,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G84" s="1">
         <v>1253</v>
@@ -2938,7 +2950,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G85" s="1">
         <v>1267</v>
@@ -2949,7 +2961,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D86" s="1">
         <v>10100001</v>
@@ -2969,7 +2981,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G87" s="1">
         <v>1277</v>
@@ -2986,10 +2998,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D88" s="1">
         <v>10130001</v>
@@ -3009,7 +3021,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1">
         <v>83040003</v>
@@ -3023,10 +3035,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G90" s="1">
         <v>1581</v>
@@ -3037,13 +3049,13 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G91" s="1">
         <v>1634</v>
@@ -3060,10 +3072,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G92" s="1">
         <v>1663</v>
@@ -3074,10 +3086,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G93" s="1">
         <v>1852</v>

--- a/MillenniumHistory/x64/EngineStaticReleaseWindows/Resource/AncientBooks/Calendar.xlsx
+++ b/MillenniumHistory/x64/EngineStaticReleaseWindows/Resource/AncientBooks/Calendar.xlsx
@@ -1379,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
